--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -18,9 +18,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="74">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="91">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段00450069地號</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段00450070地號</t>
+  </si>
+  <si>
+    <t>165thSt.FlushingNewYorkBlock5250Lot26</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>許添財</t>
+  </si>
+  <si>
+    <t>洪淑貞</t>
+  </si>
+  <si>
+    <t>許添財洪淑貞</t>
+  </si>
+  <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
+    <t>88年08月16日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>(超過五年交付第一銀行）</t>
+  </si>
+  <si>
+    <t>(超過12年）</t>
+  </si>
+  <si>
+    <t>(超過20年）</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-03-22</t>
+  </si>
+  <si>
+    <t>tmpb8d31</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -35,85 +128,43 @@
     <t>登記（取得）時間</t>
   </si>
   <si>
+    <t>登記（取得）原乱</t>
+  </si>
+  <si>
+    <t>取得價額</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段01774000建號</t>
+  </si>
+  <si>
+    <t>臺南市安南區海東段01773000建號</t>
+  </si>
+  <si>
+    <t>88年間</t>
+  </si>
+  <si>
+    <t>(超過五年交付第一銀行含陽台）</t>
+  </si>
+  <si>
+    <t>(超過12年含陽台）</t>
+  </si>
+  <si>
+    <t>廠牌型號</t>
+  </si>
+  <si>
+    <t>汽缸容量</t>
+  </si>
+  <si>
+    <t>所有人</t>
+  </si>
+  <si>
     <t>登記（取得）原因</t>
   </si>
   <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段0045-0069 地號</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段0045-0070 地號</t>
-  </si>
-  <si>
-    <t>165th St., Flushing, New York, Block 5250 Lot26</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>許添財</t>
-  </si>
-  <si>
-    <t>洪淑貞</t>
-  </si>
-  <si>
-    <t>許添財 洪淑貞</t>
-  </si>
-  <si>
-    <t>87年07月 03日</t>
-  </si>
-  <si>
-    <t>88年08月 16日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>(超過五年，交 付第一銀行）</t>
-  </si>
-  <si>
-    <t>(超過12年）</t>
-  </si>
-  <si>
-    <t>(超過20年）</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>登記（取得）原乱</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01774-000 建號</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01773-000 建號</t>
-  </si>
-  <si>
-    <t>88年間</t>
-  </si>
-  <si>
-    <t>(超過五年,交 付第一銀行， 含陽台）</t>
-  </si>
-  <si>
-    <t>(超過12年，含 陽台）</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>國瑞-MVIEPE</t>
-  </si>
-  <si>
-    <t>93年09月 23日</t>
+    <t>國瑞MVIEPE</t>
+  </si>
+  <si>
+    <t>93年09月23日</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -131,7 +182,7 @@
     <t>新臺幣總額或折合新臺幣總額</t>
   </si>
   <si>
-    <t>臺灣中小企業銀行安平分 行</t>
+    <t>臺灣中小企業銀行安平分行</t>
   </si>
   <si>
     <t>臺灣銀行群賢分行</t>
@@ -140,7 +191,7 @@
     <t>臺灣銀行南都分行</t>
   </si>
   <si>
-    <t>台北富邦商業銀行駐立分 行</t>
+    <t>台北富邦商業銀行駐立分行</t>
   </si>
   <si>
     <t>華南商業銀行台南分行</t>
@@ -152,7 +203,7 @@
     <t>第一商業銀行運河分行</t>
   </si>
   <si>
-    <t>合作金庫商業銀行南興分 行 •</t>
+    <t>合作金庫商業銀行南興分行</t>
   </si>
   <si>
     <t>金城商業銀行府城分行</t>
@@ -215,31 +266,31 @@
     <t>單位數</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及另</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
+    <t>(九）珠寶古董字畫及另</t>
+  </si>
+  <si>
+    <t>財產種類</t>
   </si>
   <si>
     <t>黃金1克(註3)</t>
   </si>
   <si>
-    <t>-他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>他具有相當價值之財產（總fl</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>貢額:新臺幣1,657元）</t>
+    <t>貢額:新臺幣1657元）</t>
   </si>
   <si>
     <t>價</t>
   </si>
   <si>
-    <t>•額</t>
+    <t>額</t>
   </si>
 </sst>
 </file>
@@ -598,13 +649,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -626,81 +677,165 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>85.59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>639</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>464.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -718,25 +853,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -744,25 +879,25 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2">
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -770,25 +905,25 @@
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>282.77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -796,23 +931,23 @@
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>465.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -830,22 +965,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -853,19 +988,19 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2">
         <v>1100000</v>
@@ -886,22 +1021,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -909,16 +1044,16 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
@@ -930,16 +1065,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -951,16 +1086,16 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
@@ -972,16 +1107,16 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -993,16 +1128,16 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1014,16 +1149,16 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1035,16 +1170,16 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1056,16 +1191,16 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1077,16 +1212,16 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
@@ -1098,16 +1233,16 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1119,16 +1254,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1140,16 +1275,16 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2">
         <v>369.68</v>
@@ -1163,16 +1298,16 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2">
         <v>2000.38</v>
@@ -1186,16 +1321,16 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F15" s="2">
         <v>100954.8</v>
@@ -1209,16 +1344,16 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F16" s="2">
         <v>16557.19</v>
@@ -1232,16 +1367,16 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F17" s="2">
         <v>4889.73</v>
@@ -1255,16 +1390,16 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F18" s="2">
         <v>4201.16</v>
@@ -1278,16 +1413,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F19" s="2">
         <v>4201.16</v>
@@ -1311,22 +1446,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1334,14 +1469,14 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1351,22 +1486,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1374,14 +1509,14 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2">
         <v>1657.1</v>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -68,6 +68,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>臺南市安南區海東段00450069地號</t>
+  </si>
+  <si>
     <t>臺南市安南區海東段00450070地號</t>
   </si>
   <si>
@@ -77,18 +80,27 @@
     <t>全部</t>
   </si>
   <si>
+    <t>許添財</t>
+  </si>
+  <si>
     <t>洪淑貞</t>
   </si>
   <si>
     <t>許添財洪淑貞</t>
   </si>
   <si>
+    <t>87年07月03日</t>
+  </si>
+  <si>
     <t>88年08月16日</t>
   </si>
   <si>
     <t>買賣</t>
   </si>
   <si>
+    <t>(超過五年交付第一銀行）</t>
+  </si>
+  <si>
     <t>(超過12年）</t>
   </si>
   <si>
@@ -104,22 +116,19 @@
     <t>2012-03-22</t>
   </si>
   <si>
-    <t>許添財</t>
-  </si>
-  <si>
     <t>tmpb8d31</t>
   </si>
   <si>
     <t>臺南市安南區海東段01774000建號</t>
   </si>
   <si>
+    <t>臺南市安南區海東段01773000建號</t>
+  </si>
+  <si>
     <t>88年間</t>
   </si>
   <si>
     <t>(超過五年交付第一銀行含陽台）</t>
-  </si>
-  <si>
-    <t>臺南市安南區海東段01773000建號</t>
   </si>
   <si>
     <t>(超過12年含陽台）</t>
@@ -583,7 +592,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,7 +650,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -650,40 +659,40 @@
         <v>85.59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2">
         <v>639</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P2" s="2">
         <v>1</v>
@@ -694,52 +703,105 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>464.5</v>
+        <v>85.59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M3" s="2">
         <v>639</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P3" s="2">
         <v>1</v>
       </c>
       <c r="Q3" s="2">
+        <v>85.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>464.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
+        <v>15</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>464.5</v>
       </c>
     </row>
@@ -750,38 +812,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="1">
-        <v>282.77</v>
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>33</v>
@@ -790,43 +879,150 @@
         <v>282.77</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2">
+        <v>639</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="2">
+        <v>20</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>282.77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2">
+        <v>282.77</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2">
+        <v>639</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2">
+        <v>21</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>282.77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C4" s="2">
+        <v>465.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="2">
+        <v>639</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="2">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="P4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="2">
         <v>465.5</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -836,29 +1032,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1">
         <v>2995</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G1" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2995</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2">
         <v>1100000</v>
       </c>
     </row>
@@ -869,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -877,16 +1096,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1">
@@ -895,372 +1114,393 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2">
-        <v>2253656</v>
+        <v>2165459</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
-        <v>1779236</v>
+        <v>2253656</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2">
-        <v>3000000</v>
+        <v>1779236</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>1000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>254</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>1210</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>1845</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
-        <v>11567</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2">
-        <v>1977</v>
+        <v>11567</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
+        <v>57</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>388</v>
+        <v>1977</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="2">
-        <v>369.68</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>10991</v>
+        <v>388</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>2000.38</v>
+        <v>369.68</v>
       </c>
       <c r="G13" s="2">
-        <v>59475</v>
+        <v>10991</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>100954.8</v>
+        <v>2000.38</v>
       </c>
       <c r="G14" s="2">
-        <v>3001588</v>
+        <v>59475</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2">
-        <v>16557.19</v>
+        <v>100954.8</v>
       </c>
       <c r="G15" s="2">
-        <v>492278</v>
+        <v>3001588</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" s="2">
-        <v>4889.73</v>
+        <v>16557.19</v>
       </c>
       <c r="G16" s="2">
-        <v>145381</v>
+        <v>492278</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>4201.16</v>
+        <v>4889.73</v>
       </c>
       <c r="G17" s="2">
-        <v>124909</v>
+        <v>145381</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2">
         <v>4201.16</v>
       </c>
       <c r="G18" s="2">
+        <v>124909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
+        <v>65</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2">
+        <v>4201.16</v>
+      </c>
+      <c r="G19" s="2">
         <v>124909</v>
       </c>
     </row>
@@ -1271,7 +1511,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1279,58 +1519,75 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>91</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>1657.1</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>(超過12年含陽台）</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞MVIEPE</t>
@@ -1032,38 +1035,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1">
-        <v>2995</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1">
-        <v>1100000</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1072,13 +1096,34 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G2" s="2">
         <v>1100000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="2">
+        <v>639</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1096,13 +1141,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1117,13 +1162,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1138,16 +1183,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1159,13 +1204,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1180,13 +1225,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1201,13 +1246,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1222,13 +1267,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1243,13 +1288,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1264,13 +1309,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1285,13 +1330,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1306,13 +1351,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1327,13 +1372,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1348,13 +1393,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1371,13 +1416,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1394,13 +1439,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1417,13 +1462,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1440,13 +1485,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1463,13 +1508,13 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1486,13 +1531,13 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1519,14 +1564,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1536,16 +1581,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1553,22 +1598,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1576,7 +1621,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -134,6 +134,9 @@
     <t>(超過12年含陽台）</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>93年09月23日</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣中小企業銀行安平分行</t>
@@ -897,7 +903,7 @@
         <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>30</v>
@@ -950,7 +956,7 @@
         <v>37</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>30</v>
@@ -1001,7 +1007,7 @@
         <v>28</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>30</v>
@@ -1046,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1087,7 +1093,7 @@
         <v>32</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
         <v>2995</v>
@@ -1096,7 +1102,7 @@
         <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>25</v>
@@ -1105,7 +1111,7 @@
         <v>1100000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>30</v>
@@ -1141,13 +1147,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>20</v>
@@ -1162,13 +1168,13 @@
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
@@ -1183,16 +1189,16 @@
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2">
@@ -1204,13 +1210,13 @@
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
@@ -1225,13 +1231,13 @@
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
@@ -1246,13 +1252,13 @@
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
@@ -1267,13 +1273,13 @@
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
@@ -1288,13 +1294,13 @@
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
@@ -1309,13 +1315,13 @@
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
@@ -1330,13 +1336,13 @@
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
@@ -1351,13 +1357,13 @@
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
@@ -1372,13 +1378,13 @@
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
@@ -1393,13 +1399,13 @@
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
@@ -1416,13 +1422,13 @@
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
@@ -1439,13 +1445,13 @@
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
@@ -1462,13 +1468,13 @@
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>20</v>
@@ -1485,13 +1491,13 @@
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
@@ -1508,13 +1514,13 @@
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
@@ -1531,13 +1537,13 @@
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
@@ -1564,14 +1570,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1581,16 +1587,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1598,22 +1604,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1621,7 +1627,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -149,70 +149,82 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣中小企業銀行安平分行</t>
   </si>
   <si>
+    <t>臺灣銀行群賢分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行南都分行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行駐立分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行台南分行</t>
+  </si>
+  <si>
+    <t>華南商業銀行東台南分行</t>
+  </si>
+  <si>
+    <t>第一商業銀行運河分行</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行南興分行</t>
+  </si>
+  <si>
+    <t>金城商業銀行府城分行</t>
+  </si>
+  <si>
+    <t>臺灣銀行(註2)</t>
+  </si>
+  <si>
+    <t>美商花旗銀行</t>
+  </si>
+  <si>
+    <t>日商三菱東京曰聯銀行</t>
+  </si>
+  <si>
+    <t>美商摩根大通銀行</t>
+  </si>
+  <si>
     <t>活期儲蓄存款</t>
   </si>
   <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>支票存款</t>
+  </si>
+  <si>
+    <t>其他存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>臺灣銀行群賢分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行南都分行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行駐立分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行台南分行</t>
-  </si>
-  <si>
-    <t>華南商業銀行東台南分行</t>
-  </si>
-  <si>
-    <t>第一商業銀行運河分行</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行南興分行</t>
-  </si>
-  <si>
-    <t>金城商業銀行府城分行</t>
-  </si>
-  <si>
-    <t>臺灣銀行(註2)</t>
-  </si>
-  <si>
-    <t>美商花旗銀行</t>
-  </si>
-  <si>
-    <t>日商三菱東京曰聯銀行</t>
-  </si>
-  <si>
-    <t>美商摩根大通銀行</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>支票存款</t>
-  </si>
-  <si>
-    <t>其他存款</t>
-  </si>
-  <si>
     <t>美金</t>
   </si>
   <si>
     <t>洪淑頁</t>
+  </si>
+  <si>
+    <t>deposit</t>
   </si>
   <si>
     <t>(九）珠寶古董字畫及另</t>
@@ -1139,13 +1151,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>43</v>
       </c>
@@ -1156,403 +1168,769 @@
         <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1">
-        <v>2165459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="F2" s="2">
         <v>2165459</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="G2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="2">
+        <v>639</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>49</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2">
+        <v>67</v>
+      </c>
+      <c r="F3" s="2">
         <v>2253656</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="2">
+        <v>639</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="F4" s="2">
         <v>1779236</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="2">
+        <v>639</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>3000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>639</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M5" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2">
+        <v>639</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>254</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>639</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M7" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>1210</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
+        <v>639</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>55</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>1845</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>639</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>56</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2">
+      <c r="F10" s="2">
         <v>11567</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="2">
+        <v>639</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>57</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>1977</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>639</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M11" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>58</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>388</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="2">
+        <v>639</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>59</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="2">
-        <v>369.68</v>
-      </c>
-      <c r="G13" s="2">
         <v>10991</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="2">
+        <v>639</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M13" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>60</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="2">
-        <v>2000.38</v>
-      </c>
-      <c r="G14" s="2">
         <v>59475</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>639</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>61</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F15" s="2">
-        <v>100954.8</v>
-      </c>
-      <c r="G15" s="2">
         <v>3001588</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K15" s="2">
+        <v>639</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M15" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>62</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="2">
+        <v>492278</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="2">
+        <v>639</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="2">
         <v>62</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2">
-        <v>16557.19</v>
-      </c>
-      <c r="G16" s="2">
-        <v>492278</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>63</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F17" s="2">
-        <v>4889.73</v>
-      </c>
-      <c r="G17" s="2">
         <v>145381</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="G17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="2">
+        <v>639</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>64</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F18" s="2">
-        <v>4201.16</v>
-      </c>
-      <c r="G18" s="2">
         <v>124909</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="G18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="2">
+        <v>639</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M18" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F19" s="2">
-        <v>4201.16</v>
-      </c>
-      <c r="G19" s="2">
         <v>124909</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="2">
+        <v>639</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M19" s="2">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1570,14 +1948,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1587,16 +1965,16 @@
         <v>89</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1604,22 +1982,22 @@
         <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1627,7 +2005,7 @@
         <v>91</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -11,14 +11,14 @@
     <sheet name="建物" sheetId="2" r:id="rId2"/>
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
-    <sheet name="其他有價證券" sheetId="5" r:id="rId5"/>
+    <sheet name="珠寶、古董、字畫" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="72">
   <si>
     <t>name</t>
   </si>
@@ -227,34 +227,13 @@
     <t>deposit</t>
   </si>
   <si>
-    <t>(九）珠寶古董字畫及另</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總fl</t>
-  </si>
-  <si>
-    <t>貢額:新臺幣1657元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
+    <t>quantity</t>
   </si>
   <si>
     <t>黃金1克(註3)</t>
   </si>
   <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
+    <t>otherbonds</t>
   </si>
 </sst>
 </file>
@@ -1940,83 +1919,83 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1">
+        <v>91</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1657.1</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>89</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>90</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2">
+        <v>639</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="2">
         <v>91</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1657.1</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
+++ b/legislator/property/output/normal/許添財_2012-03-22_財產申報表_tmpb8d31.xlsx
@@ -233,7 +233,7 @@
     <t>黃金1克(註3)</t>
   </si>
   <si>
-    <t>otherbonds</t>
+    <t>antique</t>
   </si>
 </sst>
 </file>
